--- a/PB HYD Employee TimeSheets_Team Raju_Mar2018-Consolidated.xlsx
+++ b/PB HYD Employee TimeSheets_Team Raju_Mar2018-Consolidated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBS\Team\Praveen\Timesheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raju.pachigolla\Downloads\MySecondRepository-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2440,7 +2440,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2479,6 +2479,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Explanatory Text 2" xfId="11"/>
@@ -2774,7 +2775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y35" sqref="Y35"/>
+      <selection pane="topRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,7 +3627,7 @@
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="22" t="s">
